--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H2">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I2">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J2">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.587999</v>
+        <v>9.744040500000001</v>
       </c>
       <c r="N2">
-        <v>37.17599800000001</v>
+        <v>19.488081</v>
       </c>
       <c r="O2">
-        <v>0.6310824130028788</v>
+        <v>0.9179692583321569</v>
       </c>
       <c r="P2">
-        <v>0.5343109468829553</v>
+        <v>0.8902350013293172</v>
       </c>
       <c r="Q2">
-        <v>1027.053350376428</v>
+        <v>465.3484661121593</v>
       </c>
       <c r="R2">
-        <v>4108.213401505711</v>
+        <v>1861.393864448637</v>
       </c>
       <c r="S2">
-        <v>0.3913875244211122</v>
+        <v>0.8561520832428304</v>
       </c>
       <c r="T2">
-        <v>0.2800988709864017</v>
+        <v>0.8123837272219618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H3">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I3">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J3">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>1.903104</v>
       </c>
       <c r="O3">
-        <v>0.02153747093335921</v>
+        <v>0.05976271573067185</v>
       </c>
       <c r="P3">
-        <v>0.02735230672910892</v>
+        <v>0.08693569120375827</v>
       </c>
       <c r="Q3">
-        <v>35.05109827968</v>
+        <v>30.295663872768</v>
       </c>
       <c r="R3">
-        <v>210.30658967808</v>
+        <v>181.773983236608</v>
       </c>
       <c r="S3">
-        <v>0.01335720542549911</v>
+        <v>0.05573822119710892</v>
       </c>
       <c r="T3">
-        <v>0.01433874839808483</v>
+        <v>0.07933314320743147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H4">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I4">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J4">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.197006</v>
+        <v>0.2093555</v>
       </c>
       <c r="N4">
-        <v>0.394012</v>
+        <v>0.418711</v>
       </c>
       <c r="O4">
-        <v>0.006688564049096684</v>
+        <v>0.01972302075948451</v>
       </c>
       <c r="P4">
-        <v>0.005662925977219145</v>
+        <v>0.0191271366145081</v>
       </c>
       <c r="Q4">
-        <v>10.885285303935</v>
+        <v>9.99824054478675</v>
       </c>
       <c r="R4">
-        <v>43.54114121574001</v>
+        <v>39.992962179147</v>
       </c>
       <c r="S4">
-        <v>0.004148143683249909</v>
+        <v>0.01839484836535156</v>
       </c>
       <c r="T4">
-        <v>0.002968644348299515</v>
+        <v>0.01745446372112446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,108 +729,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.2535725</v>
+        <v>47.7572385</v>
       </c>
       <c r="H5">
-        <v>110.507145</v>
+        <v>95.514477</v>
       </c>
       <c r="I5">
-        <v>0.6201844899444644</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J5">
-        <v>0.5242244663345057</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.03478166666667</v>
+        <v>0.02070766666666667</v>
       </c>
       <c r="N5">
-        <v>30.104345</v>
+        <v>0.062123</v>
       </c>
       <c r="O5">
-        <v>0.3406915520146654</v>
+        <v>0.001950833579949665</v>
       </c>
       <c r="P5">
-        <v>0.4326738204107166</v>
+        <v>0.002837840677467483</v>
       </c>
       <c r="Q5">
-        <v>554.4575363408376</v>
+        <v>0.9889409757785002</v>
       </c>
       <c r="R5">
-        <v>3326.745218045025</v>
+        <v>5.933645854671</v>
       </c>
       <c r="S5">
-        <v>0.2112916164146033</v>
+        <v>0.001819462055372695</v>
       </c>
       <c r="T5">
-        <v>0.2268182026017197</v>
+        <v>0.002589670798587605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8422143333333333</v>
+        <v>47.7572385</v>
       </c>
       <c r="H6">
-        <v>2.526643</v>
+        <v>95.514477</v>
       </c>
       <c r="I6">
-        <v>0.00945329402442259</v>
+        <v>0.9326587742146822</v>
       </c>
       <c r="J6">
-        <v>0.01198590442539091</v>
+        <v>0.91254974923351</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.587999</v>
+        <v>0.006307</v>
       </c>
       <c r="N6">
-        <v>37.17599800000001</v>
+        <v>0.018921</v>
       </c>
       <c r="O6">
-        <v>0.6310824130028788</v>
+        <v>0.0005941715977371926</v>
       </c>
       <c r="P6">
-        <v>0.5343109468829553</v>
+        <v>0.0008643301749490887</v>
       </c>
       <c r="Q6">
-        <v>15.65507918578567</v>
+        <v>0.3012049032195</v>
       </c>
       <c r="R6">
-        <v>93.93047511471401</v>
+        <v>1.807229419317</v>
       </c>
       <c r="S6">
-        <v>0.005965807603758303</v>
+        <v>0.0005541593540187494</v>
       </c>
       <c r="T6">
-        <v>0.006404199942779219</v>
+        <v>0.0007887442844047467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +859,40 @@
         <v>2.526643</v>
       </c>
       <c r="I7">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J7">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6343679999999999</v>
+        <v>9.744040500000001</v>
       </c>
       <c r="N7">
-        <v>1.903104</v>
+        <v>19.488081</v>
       </c>
       <c r="O7">
-        <v>0.02153747093335921</v>
+        <v>0.9179692583321569</v>
       </c>
       <c r="P7">
-        <v>0.02735230672910892</v>
+        <v>0.8902350013293172</v>
       </c>
       <c r="Q7">
-        <v>0.5342738222079999</v>
+        <v>8.2065705736805</v>
       </c>
       <c r="R7">
-        <v>4.808464399871999</v>
+        <v>49.239423442083</v>
       </c>
       <c r="S7">
-        <v>0.0002036000452754999</v>
+        <v>0.01509851864697547</v>
       </c>
       <c r="T7">
-        <v>0.000327842134269076</v>
+        <v>0.02148997431770766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +921,40 @@
         <v>2.526643</v>
       </c>
       <c r="I8">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J8">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197006</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N8">
-        <v>0.394012</v>
+        <v>1.903104</v>
       </c>
       <c r="O8">
-        <v>0.006688564049096684</v>
+        <v>0.05976271573067185</v>
       </c>
       <c r="P8">
-        <v>0.005662925977219145</v>
+        <v>0.08693569120375827</v>
       </c>
       <c r="Q8">
-        <v>0.1659212769526667</v>
+        <v>0.5342738222079999</v>
       </c>
       <c r="R8">
-        <v>0.995527661716</v>
+        <v>4.808464399871999</v>
       </c>
       <c r="S8">
-        <v>6.322896255729345E-05</v>
+        <v>0.0009829615421902786</v>
       </c>
       <c r="T8">
-        <v>6.787528953101206E-05</v>
+        <v>0.002098598424540965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -980,164 +983,164 @@
         <v>2.526643</v>
       </c>
       <c r="I9">
-        <v>0.00945329402442259</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J9">
-        <v>0.01198590442539091</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.03478166666667</v>
+        <v>0.2093555</v>
       </c>
       <c r="N9">
-        <v>30.104345</v>
+        <v>0.418711</v>
       </c>
       <c r="O9">
-        <v>0.3406915520146654</v>
+        <v>0.01972302075948451</v>
       </c>
       <c r="P9">
-        <v>0.4326738204107166</v>
+        <v>0.0191271366145081</v>
       </c>
       <c r="Q9">
-        <v>8.451436951537222</v>
+        <v>0.1763222028621667</v>
       </c>
       <c r="R9">
-        <v>76.06293256383501</v>
+        <v>1.057933217173</v>
       </c>
       <c r="S9">
-        <v>0.003220657412831495</v>
+        <v>0.0003243990950773319</v>
       </c>
       <c r="T9">
-        <v>0.005185987058811598</v>
+        <v>0.000461722661997438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.2216945</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H10">
-        <v>2.443389</v>
+        <v>2.526643</v>
       </c>
       <c r="I10">
-        <v>0.01371270573229373</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J10">
-        <v>0.01159096359400654</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>18.587999</v>
+        <v>0.02070766666666667</v>
       </c>
       <c r="N10">
-        <v>37.17599800000001</v>
+        <v>0.062123</v>
       </c>
       <c r="O10">
-        <v>0.6310824130028788</v>
+        <v>0.001950833579949665</v>
       </c>
       <c r="P10">
-        <v>0.5343109468829553</v>
+        <v>0.002837840677467483</v>
       </c>
       <c r="Q10">
-        <v>22.7088561443055</v>
+        <v>0.01744029367655556</v>
       </c>
       <c r="R10">
-        <v>90.83542457722201</v>
+        <v>0.156962643089</v>
       </c>
       <c r="S10">
-        <v>0.008653847422334337</v>
+        <v>3.208680129172483E-05</v>
       </c>
       <c r="T10">
-        <v>0.006193178733199496</v>
+        <v>6.85045220480638E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.2216945</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H11">
-        <v>2.443389</v>
+        <v>2.526643</v>
       </c>
       <c r="I11">
-        <v>0.01371270573229373</v>
+        <v>0.01644773886481527</v>
       </c>
       <c r="J11">
-        <v>0.01159096359400654</v>
+        <v>0.02413966456679235</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6343679999999999</v>
+        <v>0.006307</v>
       </c>
       <c r="N11">
-        <v>1.903104</v>
+        <v>0.018921</v>
       </c>
       <c r="O11">
-        <v>0.02153747093335921</v>
+        <v>0.0005941715977371926</v>
       </c>
       <c r="P11">
-        <v>0.02735230672910892</v>
+        <v>0.0008643301749490887</v>
       </c>
       <c r="Q11">
-        <v>0.7750038965759999</v>
+        <v>0.005311845800333333</v>
       </c>
       <c r="R11">
-        <v>4.650023379455999</v>
+        <v>0.047806612203</v>
       </c>
       <c r="S11">
-        <v>0.0002953370011269845</v>
+        <v>9.772779280471411E-06</v>
       </c>
       <c r="T11">
-        <v>0.0003170395915092015</v>
+        <v>2.086464049822795E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H12">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I12">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J12">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197006</v>
+        <v>9.744040500000001</v>
       </c>
       <c r="N12">
-        <v>0.394012</v>
+        <v>19.488081</v>
       </c>
       <c r="O12">
-        <v>0.006688564049096684</v>
+        <v>0.9179692583321569</v>
       </c>
       <c r="P12">
-        <v>0.005662925977219145</v>
+        <v>0.8902350013293172</v>
       </c>
       <c r="Q12">
-        <v>0.240681146667</v>
+        <v>0.7199059522075</v>
       </c>
       <c r="R12">
-        <v>0.962724586668</v>
+        <v>4.319435713245</v>
       </c>
       <c r="S12">
-        <v>9.171831057686188E-05</v>
+        <v>0.001324489120745938</v>
       </c>
       <c r="T12">
-        <v>6.5638768837501E-05</v>
+        <v>0.001885167535598941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.2216945</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H13">
-        <v>2.443389</v>
+        <v>0.221645</v>
       </c>
       <c r="I13">
-        <v>0.01371270573229373</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J13">
-        <v>0.01159096359400654</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.03478166666667</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N13">
-        <v>30.104345</v>
+        <v>1.903104</v>
       </c>
       <c r="O13">
-        <v>0.3406915520146654</v>
+        <v>0.05976271573067185</v>
       </c>
       <c r="P13">
-        <v>0.4326738204107166</v>
+        <v>0.08693569120375827</v>
       </c>
       <c r="Q13">
-        <v>12.2594375708675</v>
+        <v>0.04686816511999999</v>
       </c>
       <c r="R13">
-        <v>73.556625425205</v>
+        <v>0.42181348608</v>
       </c>
       <c r="S13">
-        <v>0.004671802998255551</v>
+        <v>8.622845056415344E-05</v>
       </c>
       <c r="T13">
-        <v>0.005015106500460338</v>
+        <v>0.0001840955955421412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>31.72429200000001</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H14">
-        <v>95.17287600000002</v>
+        <v>0.221645</v>
       </c>
       <c r="I14">
-        <v>0.3560840134430991</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J14">
-        <v>0.4514816678199414</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,152 +1305,152 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.587999</v>
+        <v>0.2093555</v>
       </c>
       <c r="N14">
-        <v>37.17599800000001</v>
+        <v>0.418711</v>
       </c>
       <c r="O14">
-        <v>0.6310824130028788</v>
+        <v>0.01972302075948451</v>
       </c>
       <c r="P14">
-        <v>0.5343109468829553</v>
+        <v>0.0191271366145081</v>
       </c>
       <c r="Q14">
-        <v>589.6911079717082</v>
+        <v>0.01546753326583333</v>
       </c>
       <c r="R14">
-        <v>3538.146647830249</v>
+        <v>0.092805199595</v>
       </c>
       <c r="S14">
-        <v>0.2247183584354205</v>
+        <v>2.845729983555858E-05</v>
       </c>
       <c r="T14">
-        <v>0.2412315974331688</v>
+        <v>4.050375119018481E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>31.72429200000001</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H15">
-        <v>95.17287600000002</v>
+        <v>0.221645</v>
       </c>
       <c r="I15">
-        <v>0.3560840134430991</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J15">
-        <v>0.4514816678199414</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6343679999999999</v>
+        <v>0.02070766666666667</v>
       </c>
       <c r="N15">
-        <v>1.903104</v>
+        <v>0.062123</v>
       </c>
       <c r="O15">
-        <v>0.02153747093335921</v>
+        <v>0.001950833579949665</v>
       </c>
       <c r="P15">
-        <v>0.02735230672910892</v>
+        <v>0.002837840677467483</v>
       </c>
       <c r="Q15">
-        <v>20.124875667456</v>
+        <v>0.001529916926111111</v>
       </c>
       <c r="R15">
-        <v>181.123881007104</v>
+        <v>0.013769252335</v>
       </c>
       <c r="S15">
-        <v>0.007669149089364639</v>
+        <v>2.814754230140289E-06</v>
       </c>
       <c r="T15">
-        <v>0.0123490650607807</v>
+        <v>6.009430216038869E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>31.72429200000001</v>
+        <v>0.07388166666666666</v>
       </c>
       <c r="H16">
-        <v>95.17287600000002</v>
+        <v>0.221645</v>
       </c>
       <c r="I16">
-        <v>0.3560840134430991</v>
+        <v>0.001442846924037936</v>
       </c>
       <c r="J16">
-        <v>0.4514816678199414</v>
+        <v>0.002117606623850971</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.197006</v>
+        <v>0.006307</v>
       </c>
       <c r="N16">
-        <v>0.394012</v>
+        <v>0.018921</v>
       </c>
       <c r="O16">
-        <v>0.006688564049096684</v>
+        <v>0.0005941715977371926</v>
       </c>
       <c r="P16">
-        <v>0.005662925977219145</v>
+        <v>0.0008643301749490887</v>
       </c>
       <c r="Q16">
-        <v>6.249875869752001</v>
+        <v>0.0004659716716666666</v>
       </c>
       <c r="R16">
-        <v>37.49925521851201</v>
+        <v>0.004193745045</v>
       </c>
       <c r="S16">
-        <v>0.002381690730773573</v>
+        <v>8.572986621458141E-07</v>
       </c>
       <c r="T16">
-        <v>0.002556707264935771</v>
+        <v>1.830311303666459E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.72429200000001</v>
+        <v>1.191503</v>
       </c>
       <c r="H17">
-        <v>95.17287600000002</v>
+        <v>2.383006</v>
       </c>
       <c r="I17">
-        <v>0.3560840134430991</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J17">
-        <v>0.4514816678199414</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.03478166666667</v>
+        <v>9.744040500000001</v>
       </c>
       <c r="N17">
-        <v>30.104345</v>
+        <v>19.488081</v>
       </c>
       <c r="O17">
-        <v>0.3406915520146654</v>
+        <v>0.9179692583321569</v>
       </c>
       <c r="P17">
-        <v>0.4326738204107166</v>
+        <v>0.8902350013293172</v>
       </c>
       <c r="Q17">
-        <v>318.3463437495801</v>
+        <v>11.6100534878715</v>
       </c>
       <c r="R17">
-        <v>2865.117093746221</v>
+        <v>46.440213951486</v>
       </c>
       <c r="S17">
-        <v>0.1213148151875404</v>
+        <v>0.02136027558712555</v>
       </c>
       <c r="T17">
-        <v>0.1953442980610561</v>
+        <v>0.02026829185561366</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05038133333333333</v>
+        <v>1.191503</v>
       </c>
       <c r="H18">
-        <v>0.151144</v>
+        <v>2.383006</v>
       </c>
       <c r="I18">
-        <v>0.0005654968557201504</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J18">
-        <v>0.0007169978261556076</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.587999</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N18">
-        <v>37.17599800000001</v>
+        <v>1.903104</v>
       </c>
       <c r="O18">
-        <v>0.6310824130028788</v>
+        <v>0.05976271573067185</v>
       </c>
       <c r="P18">
-        <v>0.5343109468829553</v>
+        <v>0.08693569120375827</v>
       </c>
       <c r="Q18">
-        <v>0.9364881736186669</v>
+        <v>0.7558513751039999</v>
       </c>
       <c r="R18">
-        <v>5.618929041712001</v>
+        <v>4.535108250624</v>
       </c>
       <c r="S18">
-        <v>0.0003568751202534133</v>
+        <v>0.001390621816858587</v>
       </c>
       <c r="T18">
-        <v>0.0003830997874062233</v>
+        <v>0.001979295308942208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05038133333333333</v>
+        <v>1.191503</v>
       </c>
       <c r="H19">
-        <v>0.151144</v>
+        <v>2.383006</v>
       </c>
       <c r="I19">
-        <v>0.0005654968557201504</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J19">
-        <v>0.0007169978261556076</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6343679999999999</v>
+        <v>0.2093555</v>
       </c>
       <c r="N19">
-        <v>1.903104</v>
+        <v>0.418711</v>
       </c>
       <c r="O19">
-        <v>0.02153747093335921</v>
+        <v>0.01972302075948451</v>
       </c>
       <c r="P19">
-        <v>0.02735230672910892</v>
+        <v>0.0191271366145081</v>
       </c>
       <c r="Q19">
-        <v>0.031960305664</v>
+        <v>0.2494477063165</v>
       </c>
       <c r="R19">
-        <v>0.287642750976</v>
+        <v>0.9977908252659999</v>
       </c>
       <c r="S19">
-        <v>1.217937209297877E-05</v>
+        <v>0.0004589360210151489</v>
       </c>
       <c r="T19">
-        <v>1.961154446511249E-05</v>
+        <v>0.0004354742137594692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05038133333333333</v>
+        <v>1.191503</v>
       </c>
       <c r="H20">
-        <v>0.151144</v>
+        <v>2.383006</v>
       </c>
       <c r="I20">
-        <v>0.0005654968557201504</v>
+        <v>0.02326905328609226</v>
       </c>
       <c r="J20">
-        <v>0.0007169978261556076</v>
+        <v>0.02276734999786419</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.197006</v>
+        <v>0.02070766666666667</v>
       </c>
       <c r="N20">
-        <v>0.394012</v>
+        <v>0.062123</v>
       </c>
       <c r="O20">
-        <v>0.006688564049096684</v>
+        <v>0.001950833579949665</v>
       </c>
       <c r="P20">
-        <v>0.005662925977219145</v>
+        <v>0.002837840677467483</v>
       </c>
       <c r="Q20">
-        <v>0.009925424954666667</v>
+        <v>0.02467324695633333</v>
       </c>
       <c r="R20">
-        <v>0.059552549728</v>
+        <v>0.148039481738</v>
       </c>
       <c r="S20">
-        <v>3.782361939047013E-06</v>
+        <v>4.539405052414688E-05</v>
       </c>
       <c r="T20">
-        <v>4.060305615346247E-06</v>
+        <v>6.461011194207821E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.191503</v>
+      </c>
+      <c r="H21">
+        <v>2.383006</v>
+      </c>
+      <c r="I21">
+        <v>0.02326905328609226</v>
+      </c>
+      <c r="J21">
+        <v>0.02276734999786419</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.006307</v>
+      </c>
+      <c r="N21">
+        <v>0.018921</v>
+      </c>
+      <c r="O21">
+        <v>0.0005941715977371926</v>
+      </c>
+      <c r="P21">
+        <v>0.0008643301749490887</v>
+      </c>
+      <c r="Q21">
+        <v>0.007514809421</v>
+      </c>
+      <c r="R21">
+        <v>0.045088856526</v>
+      </c>
+      <c r="S21">
+        <v>1.382581056882931E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.967850760678109E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.849559</v>
+      </c>
+      <c r="I22">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J22">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.744040500000001</v>
+      </c>
+      <c r="N22">
+        <v>19.488081</v>
+      </c>
+      <c r="O22">
+        <v>0.9179692583321569</v>
+      </c>
+      <c r="P22">
+        <v>0.8902350013293172</v>
+      </c>
+      <c r="Q22">
+        <v>12.5034196010465</v>
+      </c>
+      <c r="R22">
+        <v>75.020517606279</v>
+      </c>
+      <c r="S22">
+        <v>0.02300389819382171</v>
+      </c>
+      <c r="T22">
+        <v>0.03274183335140753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.849559</v>
+      </c>
+      <c r="I23">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J23">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6343679999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.903104</v>
+      </c>
+      <c r="O23">
+        <v>0.05976271573067185</v>
+      </c>
+      <c r="P23">
+        <v>0.08693569120375827</v>
+      </c>
+      <c r="Q23">
+        <v>0.8140123479039999</v>
+      </c>
+      <c r="R23">
+        <v>7.326111131135999</v>
+      </c>
+      <c r="S23">
+        <v>0.001497626871462438</v>
+      </c>
+      <c r="T23">
+        <v>0.003197396091405668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.849559</v>
+      </c>
+      <c r="I24">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J24">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2093555</v>
+      </c>
+      <c r="N24">
+        <v>0.418711</v>
+      </c>
+      <c r="O24">
+        <v>0.01972302075948451</v>
+      </c>
+      <c r="P24">
+        <v>0.0191271366145081</v>
+      </c>
+      <c r="Q24">
+        <v>0.2686421164081667</v>
+      </c>
+      <c r="R24">
+        <v>1.611852698449</v>
+      </c>
+      <c r="S24">
+        <v>0.0004942500606721247</v>
+      </c>
+      <c r="T24">
+        <v>0.0007034743843891657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.849559</v>
+      </c>
+      <c r="I25">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J25">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.02070766666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.062123</v>
+      </c>
+      <c r="O25">
+        <v>0.001950833579949665</v>
+      </c>
+      <c r="P25">
+        <v>0.002837840677467483</v>
+      </c>
+      <c r="Q25">
+        <v>0.02657179486188889</v>
+      </c>
+      <c r="R25">
+        <v>0.239146153757</v>
+      </c>
+      <c r="S25">
+        <v>4.888701517933913E-05</v>
+      </c>
+      <c r="T25">
+        <v>0.0001043725605045202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.283186333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.849559</v>
+      </c>
+      <c r="I26">
+        <v>0.02505955181507614</v>
+      </c>
+      <c r="J26">
+        <v>0.0367788654709338</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.006307</v>
+      </c>
+      <c r="N26">
+        <v>0.018921</v>
+      </c>
+      <c r="O26">
+        <v>0.0005941715977371926</v>
+      </c>
+      <c r="P26">
+        <v>0.0008643301749490887</v>
+      </c>
+      <c r="Q26">
+        <v>0.008093056204333333</v>
+      </c>
+      <c r="R26">
+        <v>0.07283750583899999</v>
+      </c>
+      <c r="S26">
+        <v>1.488967394054176E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.178908322692121E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.172363</v>
+      </c>
+      <c r="I27">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J27">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.744040500000001</v>
+      </c>
+      <c r="N27">
+        <v>19.488081</v>
+      </c>
+      <c r="O27">
+        <v>0.9179692583321569</v>
+      </c>
+      <c r="P27">
+        <v>0.8902350013293172</v>
+      </c>
+      <c r="Q27">
+        <v>0.5598373509005</v>
+      </c>
+      <c r="R27">
+        <v>3.359024105403</v>
+      </c>
+      <c r="S27">
+        <v>0.001029993540657953</v>
+      </c>
+      <c r="T27">
+        <v>0.001466007047027635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.172363</v>
+      </c>
+      <c r="I28">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J28">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.6343679999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.903104</v>
+      </c>
+      <c r="O28">
+        <v>0.05976271573067185</v>
+      </c>
+      <c r="P28">
+        <v>0.08693569120375827</v>
+      </c>
+      <c r="Q28">
+        <v>0.036447190528</v>
+      </c>
+      <c r="R28">
+        <v>0.328024714752</v>
+      </c>
+      <c r="S28">
+        <v>6.705585248748756E-05</v>
+      </c>
+      <c r="T28">
+        <v>0.0001431625758958247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.05038133333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.151144</v>
-      </c>
-      <c r="I21">
-        <v>0.0005654968557201504</v>
-      </c>
-      <c r="J21">
-        <v>0.0007169978261556076</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.03478166666667</v>
-      </c>
-      <c r="N21">
-        <v>30.104345</v>
-      </c>
-      <c r="O21">
-        <v>0.3406915520146654</v>
-      </c>
-      <c r="P21">
-        <v>0.4326738204107166</v>
-      </c>
-      <c r="Q21">
-        <v>0.5055656800755556</v>
-      </c>
-      <c r="R21">
-        <v>4.55009112068</v>
-      </c>
-      <c r="S21">
-        <v>0.0001926600014347114</v>
-      </c>
-      <c r="T21">
-        <v>0.0003102261886689256</v>
+      <c r="G29">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.172363</v>
+      </c>
+      <c r="I29">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J29">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2093555</v>
+      </c>
+      <c r="N29">
+        <v>0.418711</v>
+      </c>
+      <c r="O29">
+        <v>0.01972302075948451</v>
+      </c>
+      <c r="P29">
+        <v>0.0191271366145081</v>
+      </c>
+      <c r="Q29">
+        <v>0.01202838068216667</v>
+      </c>
+      <c r="R29">
+        <v>0.072170284093</v>
+      </c>
+      <c r="S29">
+        <v>2.212991753279517E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.149788204739031E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.172363</v>
+      </c>
+      <c r="I30">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J30">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.02070766666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.062123</v>
+      </c>
+      <c r="O30">
+        <v>0.001950833579949665</v>
+      </c>
+      <c r="P30">
+        <v>0.002837840677467483</v>
+      </c>
+      <c r="Q30">
+        <v>0.001189745183222222</v>
+      </c>
+      <c r="R30">
+        <v>0.010707706649</v>
+      </c>
+      <c r="S30">
+        <v>2.18890335161935E-06</v>
+      </c>
+      <c r="T30">
+        <v>4.673254169176421E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05745433333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.172363</v>
+      </c>
+      <c r="I31">
+        <v>0.00112203489529631</v>
+      </c>
+      <c r="J31">
+        <v>0.001646764107048772</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.006307</v>
+      </c>
+      <c r="N31">
+        <v>0.018921</v>
+      </c>
+      <c r="O31">
+        <v>0.0005941715977371926</v>
+      </c>
+      <c r="P31">
+        <v>0.0008643301749490887</v>
+      </c>
+      <c r="Q31">
+        <v>0.0003623644803333333</v>
+      </c>
+      <c r="R31">
+        <v>0.003261280323</v>
+      </c>
+      <c r="S31">
+        <v>6.666812664550924E-07</v>
+      </c>
+      <c r="T31">
+        <v>1.423347908745345E-06</v>
       </c>
     </row>
   </sheetData>
